--- a/Donnes-PRB.xlsx
+++ b/Donnes-PRB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\Sam\Documents\GitHub\stats-mtess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C534BB5-A8A9-4077-9397-996A576E26BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A08E30-A151-4302-9295-813055570F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="691" firstSheet="6" activeTab="8" xr2:uid="{C97317DB-643C-4A29-9AD2-3C0C2945D7E3}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="691" firstSheet="6" activeTab="7" xr2:uid="{C97317DB-643C-4A29-9AD2-3C0C2945D7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="48" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="2871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="2872">
   <si>
     <t>Situation</t>
   </si>
@@ -8721,13 +8721,16 @@
   </si>
   <si>
     <t>Source des données : https://www.donneesquebec.ca/recherche/organization/travail</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8761,6 +8764,13 @@
       <b/>
       <u/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -8801,11 +8811,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -8817,10 +8828,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="100">
     <dxf>
@@ -81947,13 +81961,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA25D51B-4B5A-48F3-82DD-5232AA9182B2}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -82535,6 +82552,601 @@
       <c r="U7">
         <f ca="1"/>
         <v>2925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B8">
+        <f ca="1">SUM(_xlfn.ANCHORARRAY(B2))</f>
+        <v>83866</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:U8" ca="1" si="0">SUM(_xlfn.ANCHORARRAY(C2))</f>
+        <v>84206</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84266</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84365</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84469</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84418</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84326</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84228</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84161</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84109</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84085</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83959</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83861</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83678</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83536</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83463</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83325</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83180</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83015</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ca="1" si="0"/>
+        <v>82893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10">
+        <f ca="1">B2/B$8</f>
+        <v>1.0481005413397563E-2</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:U16" ca="1" si="1">C2/C$8</f>
+        <v>1.0498064270954564E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0526190871763225E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0525691933858827E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0512732481738863E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0507237792887772E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0471266276118872E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0471577147741844E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0468031511032426E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0522060659382469E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0465600285425463E-2</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0421753474910372E-2</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0433932340420457E-2</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0432849733502234E-2</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0438613292472707E-2</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.049566873944143E-2</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0465046504650464E-2</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0459245010819908E-2</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.04077576341625E-2</v>
+      </c>
+      <c r="U11" s="10">
+        <f ca="1">U2/U$8</f>
+        <v>1.0471330510417043E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" ref="B12:Q16" ca="1" si="2">B3/B$8</f>
+        <v>5.5326353945579854E-3</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.569674369997387E-3</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.553841406973156E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5473241273039766E-3</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.528655483076632E-3</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5556871757208182E-3</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5854659298437016E-3</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5563470579854677E-3</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5607704281080313E-3</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5998763509255848E-3</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5657965154308139E-3</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.53841756095237E-3</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.521040769845339E-3</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4972633189129755E-3</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4946370427121239E-3</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4874615098906105E-3</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4965496549654966E-3</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4580427987496998E-3</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4447991326868634E-3</v>
+      </c>
+      <c r="U12" s="10">
+        <f ca="1">U3/U$8</f>
+        <v>5.4648764069342402E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22459637993942719</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22505522171816736</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22513231908480288</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22495110531618562</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22473333412257751</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22466772489279538</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22467566349643053</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22464026214560479</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22459333895747435</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22462518874317849</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2245109115775703</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22459772031586847</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22447860149533155</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22453930543273024</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22460974909021261</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22460251848124319</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22469846984698469</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22452512623226736</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22435704390772751</v>
+      </c>
+      <c r="U13" s="10">
+        <f ca="1">U4/U$8</f>
+        <v>0.22444597251878928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44575871032361147</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44559770087642209</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44511428096741273</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44526758726960231</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44535865228663768</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44560401810040512</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44610203258781395</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44628864510614047</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44665581445087393</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4465158306483254</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44684545400487602</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44708726878595506</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44751433920415928</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44808671335356964</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44809423482091554</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44824652840180679</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44853285328532855</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44900216398172638</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44928025055712822</v>
+      </c>
+      <c r="U14" s="10">
+        <f ca="1">U5/U$8</f>
+        <v>0.44943481355482368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28136551164953616</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28036006935372776</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28064699878954741</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28043619984590767</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28035137150907435</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28023644246487717</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27970021108554893</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27955074322078166</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27920295623863783</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27909022815632095</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2788844621513944</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27857644802820425</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27831769237190113</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2773847367288893</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27712602949626508</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27668547739716998</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27619561956195621</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2758355373887954</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27540805878455699</v>
+      </c>
+      <c r="U15" s="10">
+        <f ca="1">U6/U$8</f>
+        <v>0.27489655338810276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2265757279469627E-2</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2919269410730825E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3026368879500625E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3272091507141589E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3515254116894953E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3428889573313747E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3465360624244003E-2</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.349242532174574E-2</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.351908841387341E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3646815441867102E-2</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3727775465302964E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3778391834109509E-2</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3734393818342256E-2</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4059131432395612E-2</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4236736257421949E-2</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4482345470447984E-2</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.461146114611461E-2</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4719884587641262E-2</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5102089983737879E-2</v>
+      </c>
+      <c r="U16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5286453620933009E-2</v>
       </c>
     </row>
   </sheetData>
@@ -82546,7 +83158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC160B9-86D9-4962-80AC-B2AEBC49A148}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="A1:V19"/>
     </sheetView>
   </sheetViews>
